--- a/src/assets/excel-sample/Donners-Sample.xlsx
+++ b/src/assets/excel-sample/Donners-Sample.xlsx
@@ -41,6 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -77,9 +80,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,19 +426,19 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.125" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -440,12 +447,12 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -454,7 +461,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>50000</v>
       </c>
     </row>

--- a/src/assets/excel-sample/Donners-Sample.xlsx
+++ b/src/assets/excel-sample/Donners-Sample.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>2011-2012</t>
-  </si>
-  <si>
     <t>Patel Shubham Kamleshbhai</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>Donation Amount</t>
+  </si>
+  <si>
+    <t>50000 ₹</t>
   </si>
 </sst>
 </file>
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -85,8 +85,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -439,30 +439,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="5">
+        <v>44754</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50000</v>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/excel-sample/Donners-Sample.xlsx
+++ b/src/assets/excel-sample/Donners-Sample.xlsx
@@ -22,9 +22,6 @@
     <t>Charoter English Medium School</t>
   </si>
   <si>
-    <t>Donation Date</t>
-  </si>
-  <si>
     <t>Donner Name</t>
   </si>
   <si>
@@ -35,6 +32,22 @@
   </si>
   <si>
     <t>50000 ₹</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Donation Date
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Note:Cell Format :Date (yyyy-mm-dd)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -42,9 +55,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,6 +69,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -85,8 +105,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,34 +447,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="1" max="1" width="36.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>44754</v>
       </c>
       <c r="B2" t="s">
@@ -462,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/excel-sample/Donners-Sample.xlsx
+++ b/src/assets/excel-sample/Donners-Sample.xlsx
@@ -46,7 +46,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Note:Cell Format :Date (yyyy-mm-dd)</t>
+      <t>Note:Cell Format :Text (yyyy-mm-dd)</t>
     </r>
   </si>
 </sst>
@@ -457,7 +457,7 @@
     <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
